--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tshb-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tshb-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tshb</t>
+  </si>
+  <si>
+    <t>Tshr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tshb</t>
-  </si>
-  <si>
-    <t>Tshr</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.7861665</v>
+        <v>4.6288365</v>
       </c>
       <c r="H2">
-        <v>9.572333</v>
+        <v>9.257673</v>
       </c>
       <c r="I2">
-        <v>0.532946019991573</v>
+        <v>0.7537978856272829</v>
       </c>
       <c r="J2">
-        <v>0.4470675407190008</v>
+        <v>0.7139807033305391</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N2">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q2">
-        <v>3.47615683270125</v>
+        <v>1.3850080556745</v>
       </c>
       <c r="R2">
-        <v>13.904627330805</v>
+        <v>5.540032222698001</v>
       </c>
       <c r="S2">
-        <v>0.1573430139564759</v>
+        <v>0.0734199511856187</v>
       </c>
       <c r="T2">
-        <v>0.1097707055214003</v>
+        <v>0.05095432685182455</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.7861665</v>
+        <v>4.6288365</v>
       </c>
       <c r="H3">
-        <v>9.572333</v>
+        <v>9.257673</v>
       </c>
       <c r="I3">
-        <v>0.532946019991573</v>
+        <v>0.7537978856272829</v>
       </c>
       <c r="J3">
-        <v>0.4470675407190008</v>
+        <v>0.7139807033305391</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q3">
-        <v>1.954485333495334</v>
+        <v>1.890237844922</v>
       </c>
       <c r="R3">
-        <v>11.726912000972</v>
+        <v>11.341427069532</v>
       </c>
       <c r="S3">
-        <v>0.08846684079754616</v>
+        <v>0.1002024282348277</v>
       </c>
       <c r="T3">
-        <v>0.09257863395462518</v>
+        <v>0.1043125308007015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.7861665</v>
+        <v>4.6288365</v>
       </c>
       <c r="H4">
-        <v>9.572333</v>
+        <v>9.257673</v>
       </c>
       <c r="I4">
-        <v>0.532946019991573</v>
+        <v>0.7537978856272829</v>
       </c>
       <c r="J4">
-        <v>0.4470675407190008</v>
+        <v>0.7139807033305391</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N4">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q4">
-        <v>0.5128457174191666</v>
+        <v>0.212840074052</v>
       </c>
       <c r="R4">
-        <v>3.077074304515</v>
+        <v>1.277040444312</v>
       </c>
       <c r="S4">
-        <v>0.02321319053107803</v>
+        <v>0.01128275592565495</v>
       </c>
       <c r="T4">
-        <v>0.02429210142152214</v>
+        <v>0.01174555193666065</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.7861665</v>
+        <v>4.6288365</v>
       </c>
       <c r="H5">
-        <v>9.572333</v>
+        <v>9.257673</v>
       </c>
       <c r="I5">
-        <v>0.532946019991573</v>
+        <v>0.7537978856272829</v>
       </c>
       <c r="J5">
-        <v>0.4470675407190008</v>
+        <v>0.7139807033305391</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N5">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q5">
-        <v>3.531779266681001</v>
+        <v>2.46041869646475</v>
       </c>
       <c r="R5">
-        <v>14.127117066724</v>
+        <v>9.841674785859</v>
       </c>
       <c r="S5">
-        <v>0.1598606798234582</v>
+        <v>0.1304279927113145</v>
       </c>
       <c r="T5">
-        <v>0.1115271607432524</v>
+        <v>0.09051859152613388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.7861665</v>
+        <v>4.6288365</v>
       </c>
       <c r="H6">
-        <v>9.572333</v>
+        <v>9.257673</v>
       </c>
       <c r="I6">
-        <v>0.532946019991573</v>
+        <v>0.7537978856272829</v>
       </c>
       <c r="J6">
-        <v>0.4470675407190008</v>
+        <v>0.7139807033305391</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N6">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q6">
-        <v>0.9564164609173333</v>
+        <v>7.7207064138125</v>
       </c>
       <c r="R6">
-        <v>5.738498765504001</v>
+        <v>46.324238482875</v>
       </c>
       <c r="S6">
-        <v>0.04329075349611892</v>
+        <v>0.4092784050592027</v>
       </c>
       <c r="T6">
-        <v>0.04530283646851182</v>
+        <v>0.4260661840823653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.7861665</v>
+        <v>4.6288365</v>
       </c>
       <c r="H7">
-        <v>9.572333</v>
+        <v>9.257673</v>
       </c>
       <c r="I7">
-        <v>0.532946019991573</v>
+        <v>0.7537978856272829</v>
       </c>
       <c r="J7">
-        <v>0.4470675407190008</v>
+        <v>0.7139807033305391</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N7">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q7">
-        <v>1.342617021968833</v>
+        <v>0.5505769574925</v>
       </c>
       <c r="R7">
-        <v>8.055702131813</v>
+        <v>3.303461744955</v>
       </c>
       <c r="S7">
-        <v>0.0607715413868957</v>
+        <v>0.02918635251066436</v>
       </c>
       <c r="T7">
-        <v>0.06359610260968906</v>
+        <v>0.0303835181328532</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>0.136423</v>
       </c>
       <c r="I8">
-        <v>0.005063627636391278</v>
+        <v>0.007405415230582661</v>
       </c>
       <c r="J8">
-        <v>0.006371518323433613</v>
+        <v>0.01052136854374335</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N8">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O8">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P8">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q8">
-        <v>0.0330276672425</v>
+        <v>0.01360651169966667</v>
       </c>
       <c r="R8">
-        <v>0.198166003455</v>
+        <v>0.081639070198</v>
       </c>
       <c r="S8">
-        <v>0.001494947713233149</v>
+        <v>0.0007212878081850346</v>
       </c>
       <c r="T8">
-        <v>0.001564430422483839</v>
+        <v>0.0007508735869269156</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>0.136423</v>
       </c>
       <c r="I9">
-        <v>0.005063627636391278</v>
+        <v>0.007405415230582661</v>
       </c>
       <c r="J9">
-        <v>0.006371518323433613</v>
+        <v>0.01052136854374335</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.225084</v>
       </c>
       <c r="O9">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P9">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q9">
         <v>0.01856995939244445</v>
@@ -1013,10 +1013,10 @@
         <v>0.167129634532</v>
       </c>
       <c r="S9">
-        <v>0.0008405412990489458</v>
+        <v>0.0009844025863432345</v>
       </c>
       <c r="T9">
-        <v>0.001319412412835181</v>
+        <v>0.001537171208080487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>0.136423</v>
       </c>
       <c r="I10">
-        <v>0.005063627636391278</v>
+        <v>0.007405415230582661</v>
       </c>
       <c r="J10">
-        <v>0.006371518323433613</v>
+        <v>0.01052136854374335</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N10">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O10">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P10">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q10">
-        <v>0.004872650607222221</v>
+        <v>0.002090970479111111</v>
       </c>
       <c r="R10">
-        <v>0.04385385546499999</v>
+        <v>0.018818734312</v>
       </c>
       <c r="S10">
-        <v>0.0002205532055644991</v>
+        <v>0.0001108433628800402</v>
       </c>
       <c r="T10">
-        <v>0.0003462062333423122</v>
+        <v>0.0001730849028535632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.136423</v>
       </c>
       <c r="I11">
-        <v>0.005063627636391278</v>
+        <v>0.007405415230582661</v>
       </c>
       <c r="J11">
-        <v>0.006371518323433613</v>
+        <v>0.01052136854374335</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N11">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O11">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P11">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q11">
-        <v>0.03355614720733333</v>
+        <v>0.0241714953515</v>
       </c>
       <c r="R11">
-        <v>0.201336883244</v>
+        <v>0.145028972109</v>
       </c>
       <c r="S11">
-        <v>0.001518868564473303</v>
+        <v>0.00128134273408704</v>
       </c>
       <c r="T11">
-        <v>0.001589463075519491</v>
+        <v>0.001333900842227821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.136423</v>
       </c>
       <c r="I12">
-        <v>0.005063627636391278</v>
+        <v>0.007405415230582661</v>
       </c>
       <c r="J12">
-        <v>0.006371518323433613</v>
+        <v>0.01052136854374335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N12">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O12">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P12">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q12">
-        <v>0.009087105713777778</v>
+        <v>0.0758492932361111</v>
       </c>
       <c r="R12">
-        <v>0.081783951424</v>
+        <v>0.6826436391249999</v>
       </c>
       <c r="S12">
-        <v>0.0004113141811371746</v>
+        <v>0.004020807954179674</v>
       </c>
       <c r="T12">
-        <v>0.0006456470809721922</v>
+        <v>0.006278600144017672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.136423</v>
       </c>
       <c r="I13">
-        <v>0.005063627636391278</v>
+        <v>0.007405415230582661</v>
       </c>
       <c r="J13">
-        <v>0.006371518323433613</v>
+        <v>0.01052136854374335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N13">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O13">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P13">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q13">
-        <v>0.01275647514477778</v>
+        <v>0.005408944578333333</v>
       </c>
       <c r="R13">
-        <v>0.114808276303</v>
+        <v>0.048680501205</v>
       </c>
       <c r="S13">
-        <v>0.0005774026729342068</v>
+        <v>0.0002867307849076375</v>
       </c>
       <c r="T13">
-        <v>0.0009063590982805979</v>
+        <v>0.0004477378596368906</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05363866666666666</v>
+        <v>0.8269439999999999</v>
       </c>
       <c r="H14">
-        <v>0.160916</v>
+        <v>1.653888</v>
       </c>
       <c r="I14">
-        <v>0.005972737036552039</v>
+        <v>0.1346663764710997</v>
       </c>
       <c r="J14">
-        <v>0.007515442722514848</v>
+        <v>0.1275530165593382</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N14">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O14">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P14">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q14">
-        <v>0.03895736130999999</v>
+        <v>0.247432395072</v>
       </c>
       <c r="R14">
-        <v>0.23374416786</v>
+        <v>0.989729580288</v>
       </c>
       <c r="S14">
-        <v>0.00176334640216551</v>
+        <v>0.01311651170077843</v>
       </c>
       <c r="T14">
-        <v>0.00184530384073367</v>
+        <v>0.009103016463025901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05363866666666666</v>
+        <v>0.8269439999999999</v>
       </c>
       <c r="H15">
-        <v>0.160916</v>
+        <v>1.653888</v>
       </c>
       <c r="I15">
-        <v>0.005972737036552039</v>
+        <v>0.1346663764710997</v>
       </c>
       <c r="J15">
-        <v>0.007515442722514848</v>
+        <v>0.1275530165593382</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.225084</v>
       </c>
       <c r="O15">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P15">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q15">
-        <v>0.02190395743822222</v>
+        <v>0.337691954432</v>
       </c>
       <c r="R15">
-        <v>0.197135616944</v>
+        <v>2.026151726592</v>
       </c>
       <c r="S15">
-        <v>0.0009914497091968373</v>
+        <v>0.01790121487639957</v>
       </c>
       <c r="T15">
-        <v>0.001556295989853515</v>
+        <v>0.01863548679467407</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8269439999999999</v>
+      </c>
+      <c r="H16">
+        <v>1.653888</v>
+      </c>
+      <c r="I16">
+        <v>0.1346663764710997</v>
+      </c>
+      <c r="J16">
+        <v>0.1275530165593382</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.05363866666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.160916</v>
-      </c>
-      <c r="I16">
-        <v>0.005972737036552039</v>
-      </c>
-      <c r="J16">
-        <v>0.007515442722514848</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N16">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O16">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P16">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q16">
-        <v>0.00574747253111111</v>
+        <v>0.038023987712</v>
       </c>
       <c r="R16">
-        <v>0.05172725277999999</v>
+        <v>0.228143926272</v>
       </c>
       <c r="S16">
-        <v>0.0002601507049882859</v>
+        <v>0.002015670096834228</v>
       </c>
       <c r="T16">
-        <v>0.0004083631223804746</v>
+        <v>0.002098348840083226</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05363866666666666</v>
+        <v>0.8269439999999999</v>
       </c>
       <c r="H17">
-        <v>0.160916</v>
+        <v>1.653888</v>
       </c>
       <c r="I17">
-        <v>0.005972737036552039</v>
+        <v>0.1346663764710997</v>
       </c>
       <c r="J17">
-        <v>0.007515442722514848</v>
+        <v>0.1275530165593382</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N17">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O17">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P17">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q17">
-        <v>0.03958072307466667</v>
+        <v>0.4395550541759999</v>
       </c>
       <c r="R17">
-        <v>0.237484338448</v>
+        <v>1.758220216704</v>
       </c>
       <c r="S17">
-        <v>0.001791561935456528</v>
+        <v>0.0233010273758136</v>
       </c>
       <c r="T17">
-        <v>0.001874830785573506</v>
+        <v>0.01617119251262974</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05363866666666666</v>
+        <v>0.8269439999999999</v>
       </c>
       <c r="H18">
-        <v>0.160916</v>
+        <v>1.653888</v>
       </c>
       <c r="I18">
-        <v>0.005972737036552039</v>
+        <v>0.1346663764710997</v>
       </c>
       <c r="J18">
-        <v>0.007515442722514848</v>
+        <v>0.1275530165593382</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N18">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O18">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P18">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q18">
-        <v>0.01071857900088889</v>
+        <v>1.379308136</v>
       </c>
       <c r="R18">
-        <v>0.09646721100799999</v>
+        <v>8.275848815999998</v>
       </c>
       <c r="S18">
-        <v>0.0004851603671805309</v>
+        <v>0.07311779566923077</v>
       </c>
       <c r="T18">
-        <v>0.0007615647338185003</v>
+        <v>0.07611694094829391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05363866666666666</v>
+        <v>0.8269439999999999</v>
       </c>
       <c r="H19">
-        <v>0.160916</v>
+        <v>1.653888</v>
       </c>
       <c r="I19">
-        <v>0.005972737036552039</v>
+        <v>0.1346663764710997</v>
       </c>
       <c r="J19">
-        <v>0.007515442722514848</v>
+        <v>0.1275530165593382</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N19">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O19">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P19">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q19">
-        <v>0.01504673665288889</v>
+        <v>0.09836085407999999</v>
       </c>
       <c r="R19">
-        <v>0.135420629876</v>
+        <v>0.5901651244799999</v>
       </c>
       <c r="S19">
-        <v>0.0006810679175643462</v>
+        <v>0.00521415675204316</v>
       </c>
       <c r="T19">
-        <v>0.001069084250155184</v>
+        <v>0.005428031000631402</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7442055</v>
+        <v>0.630123</v>
       </c>
       <c r="H20">
-        <v>1.488411</v>
+        <v>1.890369</v>
       </c>
       <c r="I20">
-        <v>0.08286827449083489</v>
+        <v>0.1026144226708203</v>
       </c>
       <c r="J20">
-        <v>0.0695149495268404</v>
+        <v>0.145791171083084</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N20">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O20">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P20">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q20">
-        <v>0.54051087310875</v>
+        <v>0.188540993199</v>
       </c>
       <c r="R20">
-        <v>2.162043492435</v>
+        <v>1.131245959194</v>
       </c>
       <c r="S20">
-        <v>0.02446541221935888</v>
+        <v>0.009994649822031004</v>
       </c>
       <c r="T20">
-        <v>0.01706834954193643</v>
+        <v>0.01040461030504715</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7442055</v>
+        <v>0.630123</v>
       </c>
       <c r="H21">
-        <v>1.488411</v>
+        <v>1.890369</v>
       </c>
       <c r="I21">
-        <v>0.08286827449083489</v>
+        <v>0.1026144226708203</v>
       </c>
       <c r="J21">
-        <v>0.0695149495268404</v>
+        <v>0.145791171083084</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.225084</v>
       </c>
       <c r="O21">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P21">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q21">
-        <v>0.303904750254</v>
+        <v>0.257317868444</v>
       </c>
       <c r="R21">
-        <v>1.823428501524</v>
+        <v>2.315860815996</v>
       </c>
       <c r="S21">
-        <v>0.01375579171538605</v>
+        <v>0.01364054545599403</v>
       </c>
       <c r="T21">
-        <v>0.01439513827434102</v>
+        <v>0.02130007989450388</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.7442055</v>
+        <v>0.630123</v>
       </c>
       <c r="H22">
-        <v>1.488411</v>
+        <v>1.890369</v>
       </c>
       <c r="I22">
-        <v>0.08286827449083489</v>
+        <v>0.1026144226708203</v>
       </c>
       <c r="J22">
-        <v>0.0695149495268404</v>
+        <v>0.145791171083084</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N22">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O22">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P22">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q22">
-        <v>0.07974285966749999</v>
+        <v>0.028973895704</v>
       </c>
       <c r="R22">
-        <v>0.4784571580049999</v>
+        <v>0.260765061336</v>
       </c>
       <c r="S22">
-        <v>0.003609440679879438</v>
+        <v>0.001535920314347132</v>
       </c>
       <c r="T22">
-        <v>0.003777201542080618</v>
+        <v>0.002398381026090817</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.7442055</v>
+        <v>0.630123</v>
       </c>
       <c r="H23">
-        <v>1.488411</v>
+        <v>1.890369</v>
       </c>
       <c r="I23">
-        <v>0.08286827449083489</v>
+        <v>0.1026144226708203</v>
       </c>
       <c r="J23">
-        <v>0.0695149495268404</v>
+        <v>0.145791171083084</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N23">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O23">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P23">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q23">
-        <v>0.549159657327</v>
+        <v>0.3349365246045</v>
       </c>
       <c r="R23">
-        <v>2.196638629308</v>
+        <v>2.009619147627</v>
       </c>
       <c r="S23">
-        <v>0.02485688643685016</v>
+        <v>0.01775514820003507</v>
       </c>
       <c r="T23">
-        <v>0.0173414624051446</v>
+        <v>0.01848342875630476</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.7442055</v>
+        <v>0.630123</v>
       </c>
       <c r="H24">
-        <v>1.488411</v>
+        <v>1.890369</v>
       </c>
       <c r="I24">
-        <v>0.08286827449083489</v>
+        <v>0.1026144226708203</v>
       </c>
       <c r="J24">
-        <v>0.0695149495268404</v>
+        <v>0.145791171083084</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N24">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O24">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P24">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q24">
-        <v>0.148714088928</v>
+        <v>1.051018908875</v>
       </c>
       <c r="R24">
-        <v>0.892284533568</v>
+        <v>9.459170179874999</v>
       </c>
       <c r="S24">
-        <v>0.006731319700423277</v>
+        <v>0.05571502394416394</v>
       </c>
       <c r="T24">
-        <v>0.007044180361353303</v>
+        <v>0.08700051366445939</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7442055</v>
+        <v>0.630123</v>
       </c>
       <c r="H25">
-        <v>1.488411</v>
+        <v>1.890369</v>
       </c>
       <c r="I25">
-        <v>0.08286827449083489</v>
+        <v>0.1026144226708203</v>
       </c>
       <c r="J25">
-        <v>0.0695149495268404</v>
+        <v>0.145791171083084</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N25">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O25">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P25">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q25">
-        <v>0.2087647749285</v>
+        <v>0.074949980235</v>
       </c>
       <c r="R25">
-        <v>1.252588649571</v>
+        <v>0.674549822115</v>
       </c>
       <c r="S25">
-        <v>0.009449423738937082</v>
+        <v>0.003973134934249106</v>
       </c>
       <c r="T25">
-        <v>0.009888617401984438</v>
+        <v>0.006204157436678048</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>3.191466333333333</v>
+        <v>0.009308666666666666</v>
       </c>
       <c r="H26">
-        <v>9.574399</v>
+        <v>0.027926</v>
       </c>
       <c r="I26">
-        <v>0.3553740306124115</v>
+        <v>0.001515900000214417</v>
       </c>
       <c r="J26">
-        <v>0.4471640314636422</v>
+        <v>0.002153740483295169</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N26">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O26">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P26">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q26">
-        <v>2.3179380619025</v>
+        <v>0.002785274079333333</v>
       </c>
       <c r="R26">
-        <v>13.907628371415</v>
+        <v>0.016711644476</v>
       </c>
       <c r="S26">
-        <v>0.1049179822363659</v>
+        <v>0.0001476487346809209</v>
       </c>
       <c r="T26">
-        <v>0.1097943973714025</v>
+        <v>0.0001537049895437063</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>3.191466333333333</v>
+        <v>0.009308666666666666</v>
       </c>
       <c r="H27">
-        <v>9.574399</v>
+        <v>0.027926</v>
       </c>
       <c r="I27">
-        <v>0.3553740306124115</v>
+        <v>0.001515900000214417</v>
       </c>
       <c r="J27">
-        <v>0.4471640314636422</v>
+        <v>0.002153740483295169</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.225084</v>
       </c>
       <c r="O27">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P27">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q27">
-        <v>1.303271447168444</v>
+        <v>0.003801299531555556</v>
       </c>
       <c r="R27">
-        <v>11.729443024516</v>
+        <v>0.034211695784</v>
       </c>
       <c r="S27">
-        <v>0.05899062308461862</v>
+        <v>0.0002015087384548146</v>
       </c>
       <c r="T27">
-        <v>0.09259861523377104</v>
+        <v>0.0003146613339162434</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>3.191466333333333</v>
+        <v>0.009308666666666666</v>
       </c>
       <c r="H28">
-        <v>9.574399</v>
+        <v>0.027926</v>
       </c>
       <c r="I28">
-        <v>0.3553740306124115</v>
+        <v>0.001515900000214417</v>
       </c>
       <c r="J28">
-        <v>0.4471640314636422</v>
+        <v>0.002153740483295169</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N28">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O28">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P28">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q28">
-        <v>0.3419709367272222</v>
+        <v>0.0004280249048888889</v>
       </c>
       <c r="R28">
-        <v>3.077738430545</v>
+        <v>0.003852224144</v>
       </c>
       <c r="S28">
-        <v>0.01547880042810622</v>
+        <v>2.268980854979001E-05</v>
       </c>
       <c r="T28">
-        <v>0.02429734439432061</v>
+        <v>3.543074845948709E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>3.191466333333333</v>
+        <v>0.009308666666666666</v>
       </c>
       <c r="H29">
-        <v>9.574399</v>
+        <v>0.027926</v>
       </c>
       <c r="I29">
-        <v>0.3553740306124115</v>
+        <v>0.001515900000214417</v>
       </c>
       <c r="J29">
-        <v>0.4471640314636422</v>
+        <v>0.002153740483295169</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N29">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O29">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P29">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q29">
-        <v>2.355027687895333</v>
+        <v>0.004947942643</v>
       </c>
       <c r="R29">
-        <v>14.130166127372</v>
+        <v>0.029687655858</v>
       </c>
       <c r="S29">
-        <v>0.1065967884068275</v>
+        <v>0.0002622928479223788</v>
       </c>
       <c r="T29">
-        <v>0.1115512316896032</v>
+        <v>0.0002730515742950539</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>3.191466333333333</v>
+        <v>0.009308666666666666</v>
       </c>
       <c r="H30">
-        <v>9.574399</v>
+        <v>0.027926</v>
       </c>
       <c r="I30">
-        <v>0.3553740306124115</v>
+        <v>0.001515900000214417</v>
       </c>
       <c r="J30">
-        <v>0.4471640314636422</v>
+        <v>0.002153740483295169</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N30">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O30">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P30">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q30">
-        <v>0.6377485897457777</v>
+        <v>0.01552646813888889</v>
       </c>
       <c r="R30">
-        <v>5.739737307712</v>
+        <v>0.13973821325</v>
       </c>
       <c r="S30">
-        <v>0.02886673130312032</v>
+        <v>0.0008230656335692778</v>
       </c>
       <c r="T30">
-        <v>0.04531261419564939</v>
+        <v>0.001285239201760975</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>3.191466333333333</v>
+        <v>0.009308666666666666</v>
       </c>
       <c r="H31">
-        <v>9.574399</v>
+        <v>0.027926</v>
       </c>
       <c r="I31">
-        <v>0.3553740306124115</v>
+        <v>0.001515900000214417</v>
       </c>
       <c r="J31">
-        <v>0.4471640314636422</v>
+        <v>0.002153740483295169</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N31">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O31">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P31">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q31">
-        <v>0.8952711996487777</v>
+        <v>0.001107219356666667</v>
       </c>
       <c r="R31">
-        <v>8.057440796839</v>
+        <v>0.00996497421</v>
       </c>
       <c r="S31">
-        <v>0.04052310515337294</v>
+        <v>5.86942370372348E-05</v>
       </c>
       <c r="T31">
-        <v>0.06360982857889548</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.1596326666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.478898</v>
-      </c>
-      <c r="I32">
-        <v>0.01777531023223731</v>
-      </c>
-      <c r="J32">
-        <v>0.02236651724456807</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.7262925</v>
-      </c>
-      <c r="N32">
-        <v>1.452585</v>
-      </c>
-      <c r="O32">
-        <v>0.2952325527432663</v>
-      </c>
-      <c r="P32">
-        <v>0.2455349483544712</v>
-      </c>
-      <c r="Q32">
-        <v>0.115940008555</v>
-      </c>
-      <c r="R32">
-        <v>0.69564005133</v>
-      </c>
-      <c r="S32">
-        <v>0.005247850215666923</v>
-      </c>
-      <c r="T32">
-        <v>0.005491761656514412</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.1596326666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.478898</v>
-      </c>
-      <c r="I33">
-        <v>0.01777531023223731</v>
-      </c>
-      <c r="J33">
-        <v>0.02236651724456807</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.4083613333333334</v>
-      </c>
-      <c r="N33">
-        <v>1.225084</v>
-      </c>
-      <c r="O33">
-        <v>0.1659958747772335</v>
-      </c>
-      <c r="P33">
-        <v>0.2070797486342548</v>
-      </c>
-      <c r="Q33">
-        <v>0.06518780860355557</v>
-      </c>
-      <c r="R33">
-        <v>0.586690277432</v>
-      </c>
-      <c r="S33">
-        <v>0.002950628171436942</v>
-      </c>
-      <c r="T33">
-        <v>0.004631652768828882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.1596326666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.478898</v>
-      </c>
-      <c r="I34">
-        <v>0.01777531023223731</v>
-      </c>
-      <c r="J34">
-        <v>0.02236651724456807</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.1071516666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.321455</v>
-      </c>
-      <c r="O34">
-        <v>0.04355636342203115</v>
-      </c>
-      <c r="P34">
-        <v>0.05433653577813797</v>
-      </c>
-      <c r="Q34">
-        <v>0.01710490628777778</v>
-      </c>
-      <c r="R34">
-        <v>0.15394415659</v>
-      </c>
-      <c r="S34">
-        <v>0.000774227872414677</v>
-      </c>
-      <c r="T34">
-        <v>0.001215319064491813</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.1596326666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.478898</v>
-      </c>
-      <c r="I35">
-        <v>0.01777531023223731</v>
-      </c>
-      <c r="J35">
-        <v>0.02236651724456807</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.7379140000000001</v>
-      </c>
-      <c r="N35">
-        <v>1.475828</v>
-      </c>
-      <c r="O35">
-        <v>0.29995660691112</v>
-      </c>
-      <c r="P35">
-        <v>0.2494637847424299</v>
-      </c>
-      <c r="Q35">
-        <v>0.1177951795906667</v>
-      </c>
-      <c r="R35">
-        <v>0.706771077544</v>
-      </c>
-      <c r="S35">
-        <v>0.005331821744054416</v>
-      </c>
-      <c r="T35">
-        <v>0.005579636043336778</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.1596326666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.478898</v>
-      </c>
-      <c r="I36">
-        <v>0.01777531023223731</v>
-      </c>
-      <c r="J36">
-        <v>0.02236651724456807</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.1998293333333333</v>
-      </c>
-      <c r="N36">
-        <v>0.599488</v>
-      </c>
-      <c r="O36">
-        <v>0.08122915243236724</v>
-      </c>
-      <c r="P36">
-        <v>0.1013333162046457</v>
-      </c>
-      <c r="Q36">
-        <v>0.03189928935822222</v>
-      </c>
-      <c r="R36">
-        <v>0.287093604224</v>
-      </c>
-      <c r="S36">
-        <v>0.001443873384387021</v>
-      </c>
-      <c r="T36">
-        <v>0.002266473364340477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.1596326666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.478898</v>
-      </c>
-      <c r="I37">
-        <v>0.01777531023223731</v>
-      </c>
-      <c r="J37">
-        <v>0.02236651724456807</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.2805203333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.841561</v>
-      </c>
-      <c r="O37">
-        <v>0.1140294497139816</v>
-      </c>
-      <c r="P37">
-        <v>0.1422516662860605</v>
-      </c>
-      <c r="Q37">
-        <v>0.04478020886422222</v>
-      </c>
-      <c r="R37">
-        <v>0.403021879778</v>
-      </c>
-      <c r="S37">
-        <v>0.002026908844277327</v>
-      </c>
-      <c r="T37">
-        <v>0.003181674347055715</v>
+        <v>9.165263531970274E-05</v>
       </c>
     </row>
   </sheetData>
